--- a/Bids_energy_33.xlsx
+++ b/Bids_energy_33.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Thesis\energy-continuous\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Thesis\market-clearing-mechanisms\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="T1_best" sheetId="1" r:id="rId1"/>
@@ -564,15 +564,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I344"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView zoomScale="91" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" customWidth="1"/>
     <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -10555,7 +10555,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I344"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -10564,7 +10563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I344"/>
   <sheetViews>
-    <sheetView topLeftCell="A331" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J339" sqref="J339"/>
     </sheetView>
   </sheetViews>
@@ -20558,13 +20557,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I344"/>
   <sheetViews>
-    <sheetView topLeftCell="A271" zoomScale="59" workbookViewId="0">
-      <selection activeCell="F272" sqref="F272:F286"/>
+    <sheetView zoomScale="59" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
